--- a/packages/frontend/public/kahootTemplate.xlsx
+++ b/packages/frontend/public/kahootTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannagimse/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jeff\cic\packages\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E8C0B5-0321-164F-87F3-4BAE581ADB78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25639F4A-5922-4C16-9F9E-0A7B536D60B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760" tabRatio="338" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="338" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Quiz template</t>
   </si>
@@ -57,30 +57,12 @@
   <si>
     <t>Correct answer(s) - choose at least one</t>
   </si>
-  <si>
-    <t>Which spreadsheet tools can read this sheet and export to xlsx format?</t>
-  </si>
-  <si>
-    <t>Excel</t>
-  </si>
-  <si>
-    <t>Google Docs</t>
-  </si>
-  <si>
-    <t>Numbers</t>
-  </si>
-  <si>
-    <t>LibreOffice</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -210,1002 +192,50 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <sz val="10"/>
@@ -1745,22 +775,22 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5"/>
-    <col min="2" max="2" width="49.33203125"/>
-    <col min="3" max="6" width="31.83203125"/>
-    <col min="7" max="7" width="26.33203125"/>
-    <col min="8" max="8" width="33.1640625"/>
-    <col min="9" max="10" width="11.5"/>
-    <col min="12" max="27" width="11.5"/>
-    <col min="28" max="1025" width="14.5"/>
+    <col min="1" max="1" width="12.42578125"/>
+    <col min="2" max="2" width="49.28515625"/>
+    <col min="3" max="6" width="31.85546875"/>
+    <col min="7" max="7" width="26.28515625"/>
+    <col min="8" max="8" width="33.140625"/>
+    <col min="9" max="10" width="11.42578125"/>
+    <col min="12" max="27" width="11.42578125"/>
+    <col min="28" max="1025" width="14.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.75" customHeight="1">
+    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1789,7 +819,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="57" customHeight="1">
+    <row r="2" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1820,17 +850,17 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="36" customHeight="1">
+    <row r="3" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1851,17 +881,17 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1882,7 +912,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="7" t="s">
         <v>3</v>
@@ -1913,17 +943,17 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="18.75" customHeight="1">
+    <row r="6" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1944,7 +974,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="18.75" customHeight="1">
+    <row r="7" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1973,7 +1003,7 @@
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:27" ht="51">
+    <row r="8" spans="1:27" ht="56.25" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
         <v>5</v>
@@ -2016,31 +1046,17 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="34">
+    <row r="9" spans="1:27" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="14">
-        <v>60</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2061,7 +1077,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="32" customHeight="1">
+    <row r="10" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2</v>
       </c>
@@ -2092,13 +1108,13 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="32" customHeight="1">
+    <row r="11" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>3</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="21"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -2123,7 +1139,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" ht="32" customHeight="1">
+    <row r="12" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>4</v>
       </c>
@@ -2154,7 +1170,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" ht="32" customHeight="1">
+    <row r="13" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>5</v>
       </c>
@@ -2185,7 +1201,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="32" customHeight="1">
+    <row r="14" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>6</v>
       </c>
@@ -2216,7 +1232,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="32" customHeight="1">
+    <row r="15" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>7</v>
       </c>
@@ -2247,7 +1263,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="32" customHeight="1">
+    <row r="16" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>8</v>
       </c>
@@ -2278,7 +1294,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="32" customHeight="1">
+    <row r="17" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>9</v>
       </c>
@@ -2309,7 +1325,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="32" customHeight="1">
+    <row r="18" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>10</v>
       </c>
@@ -2340,7 +1356,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="32" customHeight="1">
+    <row r="19" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>11</v>
       </c>
@@ -2371,7 +1387,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="32" customHeight="1">
+    <row r="20" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>12</v>
       </c>
@@ -2402,7 +1418,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="32" customHeight="1">
+    <row r="21" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>13</v>
       </c>
@@ -2433,7 +1449,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="32" customHeight="1">
+    <row r="22" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>14</v>
       </c>
@@ -2464,7 +1480,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" ht="32" customHeight="1">
+    <row r="23" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>15</v>
       </c>
@@ -2495,7 +1511,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="32" customHeight="1">
+    <row r="24" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>16</v>
       </c>
@@ -2526,7 +1542,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" ht="32" customHeight="1">
+    <row r="25" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>17</v>
       </c>
@@ -2557,7 +1573,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="32" customHeight="1">
+    <row r="26" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>18</v>
       </c>
@@ -2588,7 +1604,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" ht="32" customHeight="1">
+    <row r="27" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>19</v>
       </c>
@@ -2619,7 +1635,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" ht="32" customHeight="1">
+    <row r="28" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -2650,7 +1666,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="25.5" customHeight="1">
+    <row r="29" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>21</v>
       </c>
@@ -2681,7 +1697,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="25.5" customHeight="1">
+    <row r="30" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>22</v>
       </c>
@@ -2712,7 +1728,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="25.5" customHeight="1">
+    <row r="31" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>23</v>
       </c>
@@ -2743,7 +1759,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="25.5" customHeight="1">
+    <row r="32" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>24</v>
       </c>
@@ -2774,7 +1790,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="25.5" customHeight="1">
+    <row r="33" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>25</v>
       </c>
@@ -2805,7 +1821,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="25.5" customHeight="1">
+    <row r="34" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>26</v>
       </c>
@@ -2836,7 +1852,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="25.5" customHeight="1">
+    <row r="35" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>27</v>
       </c>
@@ -2867,7 +1883,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="25.5" customHeight="1">
+    <row r="36" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>28</v>
       </c>
@@ -2898,7 +1914,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" ht="25.5" customHeight="1">
+    <row r="37" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>29</v>
       </c>
@@ -2929,7 +1945,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" ht="25.5" customHeight="1">
+    <row r="38" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>30</v>
       </c>
@@ -2960,7 +1976,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" ht="25.5" customHeight="1">
+    <row r="39" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
         <v>31</v>
       </c>
@@ -2991,7 +2007,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" ht="25.5" customHeight="1">
+    <row r="40" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>32</v>
       </c>
@@ -3022,7 +2038,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" ht="25.5" customHeight="1">
+    <row r="41" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>33</v>
       </c>
@@ -3053,7 +2069,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" ht="25.5" customHeight="1">
+    <row r="42" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>34</v>
       </c>
@@ -3084,7 +2100,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" ht="25.5" customHeight="1">
+    <row r="43" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>35</v>
       </c>
@@ -3115,7 +2131,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" ht="25.5" customHeight="1">
+    <row r="44" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>36</v>
       </c>
@@ -3146,7 +2162,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" ht="25.5" customHeight="1">
+    <row r="45" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>37</v>
       </c>
@@ -3177,7 +2193,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="25.5" customHeight="1">
+    <row r="46" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>38</v>
       </c>
@@ -3208,7 +2224,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" ht="25.5" customHeight="1">
+    <row r="47" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>39</v>
       </c>
@@ -3239,7 +2255,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" ht="25.5" customHeight="1">
+    <row r="48" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>40</v>
       </c>
@@ -3270,7 +2286,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" ht="25.5" customHeight="1">
+    <row r="49" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>41</v>
       </c>
@@ -3301,7 +2317,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="25.5" customHeight="1">
+    <row r="50" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>42</v>
       </c>
@@ -3332,7 +2348,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" ht="25.5" customHeight="1">
+    <row r="51" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>43</v>
       </c>
@@ -3363,7 +2379,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" ht="25.5" customHeight="1">
+    <row r="52" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>44</v>
       </c>
@@ -3394,7 +2410,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" ht="25.5" customHeight="1">
+    <row r="53" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>45</v>
       </c>
@@ -3425,7 +2441,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" ht="25.5" customHeight="1">
+    <row r="54" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>46</v>
       </c>
@@ -3456,7 +2472,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" ht="25.5" customHeight="1">
+    <row r="55" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>47</v>
       </c>
@@ -3487,7 +2503,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" ht="25.5" customHeight="1">
+    <row r="56" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>48</v>
       </c>
@@ -3518,7 +2534,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" ht="25.5" customHeight="1">
+    <row r="57" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>49</v>
       </c>
@@ -3549,7 +2565,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="25.5" customHeight="1">
+    <row r="58" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>50</v>
       </c>
@@ -3580,7 +2596,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" ht="25.5" customHeight="1">
+    <row r="59" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>51</v>
       </c>
@@ -3611,7 +2627,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" ht="25.5" customHeight="1">
+    <row r="60" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>52</v>
       </c>
@@ -3642,7 +2658,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" ht="25.5" customHeight="1">
+    <row r="61" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>53</v>
       </c>
@@ -3673,7 +2689,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" ht="25.5" customHeight="1">
+    <row r="62" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>54</v>
       </c>
@@ -3704,7 +2720,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" ht="25.5" customHeight="1">
+    <row r="63" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>55</v>
       </c>
@@ -3735,7 +2751,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" ht="25.5" customHeight="1">
+    <row r="64" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>56</v>
       </c>
@@ -3766,7 +2782,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" ht="25.5" customHeight="1">
+    <row r="65" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
         <v>57</v>
       </c>
@@ -3797,7 +2813,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" ht="25.5" customHeight="1">
+    <row r="66" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
         <v>58</v>
       </c>
@@ -3828,7 +2844,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" ht="25.5" customHeight="1">
+    <row r="67" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
         <v>59</v>
       </c>
@@ -3859,7 +2875,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="25.5" customHeight="1">
+    <row r="68" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>60</v>
       </c>
@@ -3890,7 +2906,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="25.5" customHeight="1">
+    <row r="69" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>61</v>
       </c>
@@ -3921,7 +2937,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" ht="25.5" customHeight="1">
+    <row r="70" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>62</v>
       </c>
@@ -3952,7 +2968,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" ht="25.5" customHeight="1">
+    <row r="71" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
         <v>63</v>
       </c>
@@ -3983,7 +2999,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" ht="25.5" customHeight="1">
+    <row r="72" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
         <v>64</v>
       </c>
@@ -4014,7 +3030,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" ht="25.5" customHeight="1">
+    <row r="73" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
         <v>65</v>
       </c>
@@ -4045,7 +3061,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" ht="25.5" customHeight="1">
+    <row r="74" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11">
         <v>66</v>
       </c>
@@ -4076,7 +3092,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" ht="25.5" customHeight="1">
+    <row r="75" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11">
         <v>67</v>
       </c>
@@ -4107,7 +3123,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" ht="25.5" customHeight="1">
+    <row r="76" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11">
         <v>68</v>
       </c>
@@ -4138,7 +3154,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" ht="25.5" customHeight="1">
+    <row r="77" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11">
         <v>69</v>
       </c>
@@ -4169,7 +3185,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" ht="25.5" customHeight="1">
+    <row r="78" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11">
         <v>70</v>
       </c>
@@ -4200,7 +3216,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" ht="25.5" customHeight="1">
+    <row r="79" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11">
         <v>71</v>
       </c>
@@ -4231,7 +3247,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" ht="25.5" customHeight="1">
+    <row r="80" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11">
         <v>72</v>
       </c>
@@ -4262,7 +3278,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" ht="25.5" customHeight="1">
+    <row r="81" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11">
         <v>73</v>
       </c>
@@ -4293,7 +3309,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" ht="25.5" customHeight="1">
+    <row r="82" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11">
         <v>74</v>
       </c>
@@ -4324,7 +3340,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" ht="25.5" customHeight="1">
+    <row r="83" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11">
         <v>75</v>
       </c>
@@ -4355,7 +3371,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" ht="25.5" customHeight="1">
+    <row r="84" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11">
         <v>76</v>
       </c>
@@ -4386,7 +3402,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" ht="25.5" customHeight="1">
+    <row r="85" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11">
         <v>77</v>
       </c>
@@ -4417,7 +3433,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" ht="25.5" customHeight="1">
+    <row r="86" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11">
         <v>78</v>
       </c>
@@ -4448,7 +3464,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" ht="25.5" customHeight="1">
+    <row r="87" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11">
         <v>79</v>
       </c>
@@ -4479,7 +3495,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" ht="25.5" customHeight="1">
+    <row r="88" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
         <v>80</v>
       </c>
@@ -4510,7 +3526,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" ht="25.5" customHeight="1">
+    <row r="89" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11">
         <v>81</v>
       </c>
@@ -4541,7 +3557,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" ht="25.5" customHeight="1">
+    <row r="90" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11">
         <v>82</v>
       </c>
@@ -4572,7 +3588,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" ht="25.5" customHeight="1">
+    <row r="91" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11">
         <v>83</v>
       </c>
@@ -4603,7 +3619,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" ht="25.5" customHeight="1">
+    <row r="92" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11">
         <v>84</v>
       </c>
@@ -4634,7 +3650,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" ht="25.5" customHeight="1">
+    <row r="93" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11">
         <v>85</v>
       </c>
@@ -4665,7 +3681,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" ht="25.5" customHeight="1">
+    <row r="94" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="11">
         <v>86</v>
       </c>
@@ -4696,7 +3712,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" ht="25.5" customHeight="1">
+    <row r="95" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11">
         <v>87</v>
       </c>
@@ -4727,7 +3743,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" ht="25.5" customHeight="1">
+    <row r="96" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11">
         <v>88</v>
       </c>
@@ -4758,7 +3774,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" ht="25.5" customHeight="1">
+    <row r="97" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11">
         <v>89</v>
       </c>
@@ -4789,7 +3805,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" ht="25.5" customHeight="1">
+    <row r="98" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="11">
         <v>90</v>
       </c>
@@ -4820,7 +3836,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" ht="25.5" customHeight="1">
+    <row r="99" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="11">
         <v>91</v>
       </c>
@@ -4851,7 +3867,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" ht="25.5" customHeight="1">
+    <row r="100" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="11">
         <v>92</v>
       </c>
@@ -4882,7 +3898,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" ht="25.5" customHeight="1">
+    <row r="101" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11">
         <v>93</v>
       </c>
@@ -4913,7 +3929,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" ht="25.5" customHeight="1">
+    <row r="102" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="11">
         <v>94</v>
       </c>
@@ -4944,7 +3960,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" ht="25.5" customHeight="1">
+    <row r="103" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="11">
         <v>95</v>
       </c>
@@ -4975,7 +3991,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" ht="25.5" customHeight="1">
+    <row r="104" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="11">
         <v>96</v>
       </c>
@@ -5006,7 +4022,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" ht="25.5" customHeight="1">
+    <row r="105" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="11">
         <v>97</v>
       </c>
@@ -5037,7 +4053,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" ht="25.5" customHeight="1">
+    <row r="106" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="11">
         <v>98</v>
       </c>
@@ -5068,7 +4084,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" ht="25.5" customHeight="1">
+    <row r="107" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="11">
         <v>99</v>
       </c>
@@ -5099,7 +4115,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" ht="25.5" customHeight="1">
+    <row r="108" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11">
         <v>100</v>
       </c>
@@ -5130,779 +4146,779 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:H3"/>
@@ -5910,28 +4926,13 @@
     <mergeCell ref="B6:H6"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:B108">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>LEN(B9)&gt;120</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C108">
-    <cfRule type="expression" dxfId="8" priority="6">
+  <conditionalFormatting sqref="C9:F108">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>LEN(C9)&gt;75</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D108">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>LEN(D9)&gt;75</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E108">
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>LEN(E9)&gt;75</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F108">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>LEN(F9)&gt;75</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
